--- a/Primer sequences.xlsx
+++ b/Primer sequences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maq28\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cornellprod-my.sharepoint.com/personal/maq28_cornell_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9489001-BD90-4D05-960E-B928F02A8245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{25ED0E05-CC9C-4213-9BC8-8AB43FFCDCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EF09EC2-6AD8-4A4B-B265-6AD1594ABF51}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1530" windowWidth="29040" windowHeight="15720" xr2:uid="{CC8F0C81-D8F2-4F11-B225-1E298F0294C1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{CC8F0C81-D8F2-4F11-B225-1E298F0294C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
   <si>
     <t>BdBt1HEX</t>
   </si>
@@ -44,6 +44,9 @@
     <t>GAAGGTCGGAGTCAACGGATT CTTGGGAGCATACATAATATGAGTAGATAAACTATA</t>
   </si>
   <si>
+    <t>MQ385 with HEX tag</t>
+  </si>
+  <si>
     <t>BdBt1Fam</t>
   </si>
   <si>
@@ -242,9 +245,6 @@
     <t>Early1</t>
   </si>
   <si>
-    <t>XX / XY</t>
-  </si>
-  <si>
     <t>PM Susceptibility</t>
   </si>
   <si>
@@ -281,6 +281,9 @@
     <t>CTAGAATCATGWGAAGACATCACTGTG</t>
   </si>
   <si>
+    <t>164bp</t>
+  </si>
+  <si>
     <t>Auto1HEX</t>
   </si>
   <si>
@@ -338,15 +341,6 @@
     <t>GAAGGTCGGAGTCAACGGATT TGCAGATTCGTATGTGGCAACG</t>
   </si>
   <si>
-    <t>XYFAM</t>
-  </si>
-  <si>
-    <t>XYHEX</t>
-  </si>
-  <si>
-    <t>XYCom</t>
-  </si>
-  <si>
     <t>GAAGGTCGGAGTCAACGGATT CAAATTGCAGATAATATTACTGGTG</t>
   </si>
   <si>
@@ -371,6 +365,24 @@
     <t>PM Resistant</t>
   </si>
   <si>
+    <t>CTTCATGACTCCTTATGTGTCCA</t>
+  </si>
+  <si>
+    <t>BD02FAM</t>
+  </si>
+  <si>
+    <t>BD02HEX</t>
+  </si>
+  <si>
+    <t>BD02Com</t>
+  </si>
+  <si>
+    <t>GAAGGTGACCAAGTTCATGCT GGATTCTTGGGATCATTTATTCC</t>
+  </si>
+  <si>
+    <t>GAAGGTCGGAGTCAACGGATT GGATTCTTGGGATCATTTATTCT</t>
+  </si>
+  <si>
     <t>TAGCGTTGTTGTGTGTAATAAGTTCA</t>
   </si>
   <si>
@@ -398,6 +410,9 @@
     <t>OLS Common</t>
   </si>
   <si>
+    <t>CBDAS Inactivation</t>
+  </si>
+  <si>
     <t>KG9202-type (Purple)</t>
   </si>
   <si>
@@ -407,35 +422,29 @@
     <t>Z25-type (Purple)</t>
   </si>
   <si>
-    <t>THCAS 3' UTR Specific HEX</t>
-  </si>
-  <si>
-    <t>CATCGAGCTGGAATCTTGTATGAG</t>
-  </si>
-  <si>
-    <t>GAAGGTCGGAGTCAACGGATT CTCTATAATTGAGATATGCCAATCTTGG</t>
-  </si>
-  <si>
-    <t>GAAGGTGACCAAGTTCATGCT  CTCTATAATTGAGATATGCCAATCTTGA</t>
-  </si>
-  <si>
-    <t>BD01-1HEX</t>
-  </si>
-  <si>
-    <t>BD01-1FAM</t>
-  </si>
-  <si>
-    <t>CBDAS1FWD</t>
-  </si>
-  <si>
-    <t>CBDAS P476S Inactivation</t>
+    <t>CSP-2</t>
+  </si>
+  <si>
+    <t>CSP-2FAM</t>
+  </si>
+  <si>
+    <t>CSP-2HEX</t>
+  </si>
+  <si>
+    <t>CSP-2Com</t>
+  </si>
+  <si>
+    <t>Originally published in Toth 2022.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7298/bvsc-7x71</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +470,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -479,10 +496,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -490,8 +508,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -826,16 +846,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC341AB6-AAFD-4F89-A2BC-FB71BB5CF2FA}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="73" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="2" customWidth="1"/>
     <col min="5" max="10" width="8.85546875"/>
   </cols>
   <sheetData>
@@ -850,29 +870,29 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,35 +900,35 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -916,35 +936,35 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>130</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,35 +972,35 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>111</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>112</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -988,37 +1008,37 @@
         <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1030,37 +1050,37 @@
         <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1069,27 +1089,27 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,7 +1120,7 @@
         <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -1109,79 +1129,79 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -1190,40 +1210,46 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -1235,37 +1261,37 @@
         <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1273,35 +1299,35 @@
         <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,37 +1335,37 @@
         <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -1348,42 +1374,44 @@
         <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G55" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E38" r:id="rId1" xr:uid="{22347F10-DF58-4C4F-A8A5-4AD5243D67BD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Primer sequences.xlsx
+++ b/Primer sequences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cornellprod-my.sharepoint.com/personal/maq28_cornell_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smartlab\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{25ED0E05-CC9C-4213-9BC8-8AB43FFCDCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EF09EC2-6AD8-4A4B-B265-6AD1594ABF51}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2067AFE2-075B-49F0-8905-373370CD17A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{CC8F0C81-D8F2-4F11-B225-1E298F0294C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{CC8F0C81-D8F2-4F11-B225-1E298F0294C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="142">
   <si>
     <t>BdBt1HEX</t>
   </si>
@@ -44,9 +44,6 @@
     <t>GAAGGTCGGAGTCAACGGATT CTTGGGAGCATACATAATATGAGTAGATAAACTATA</t>
   </si>
   <si>
-    <t>MQ385 with HEX tag</t>
-  </si>
-  <si>
     <t>BdBt1Fam</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>CGAACAAAGTATCCCACCTCTTCCAC</t>
   </si>
   <si>
-    <t>THCAS/CBDAS common FWD1</t>
-  </si>
-  <si>
     <t>OCBD1HEX</t>
   </si>
   <si>
@@ -245,6 +239,9 @@
     <t>Early1</t>
   </si>
   <si>
+    <t>XX / XY</t>
+  </si>
+  <si>
     <t>PM Susceptibility</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>CTAGAATCATGWGAAGACATCACTGTG</t>
   </si>
   <si>
-    <t>164bp</t>
-  </si>
-  <si>
     <t>Auto1HEX</t>
   </si>
   <si>
@@ -341,6 +335,15 @@
     <t>GAAGGTCGGAGTCAACGGATT TGCAGATTCGTATGTGGCAACG</t>
   </si>
   <si>
+    <t>XYFAM</t>
+  </si>
+  <si>
+    <t>XYHEX</t>
+  </si>
+  <si>
+    <t>XYCom</t>
+  </si>
+  <si>
     <t>GAAGGTCGGAGTCAACGGATT CAAATTGCAGATAATATTACTGGTG</t>
   </si>
   <si>
@@ -365,24 +368,6 @@
     <t>PM Resistant</t>
   </si>
   <si>
-    <t>CTTCATGACTCCTTATGTGTCCA</t>
-  </si>
-  <si>
-    <t>BD02FAM</t>
-  </si>
-  <si>
-    <t>BD02HEX</t>
-  </si>
-  <si>
-    <t>BD02Com</t>
-  </si>
-  <si>
-    <t>GAAGGTGACCAAGTTCATGCT GGATTCTTGGGATCATTTATTCC</t>
-  </si>
-  <si>
-    <t>GAAGGTCGGAGTCAACGGATT GGATTCTTGGGATCATTTATTCT</t>
-  </si>
-  <si>
     <t>TAGCGTTGTTGTGTGTAATAAGTTCA</t>
   </si>
   <si>
@@ -410,9 +395,6 @@
     <t>OLS Common</t>
   </si>
   <si>
-    <t>CBDAS Inactivation</t>
-  </si>
-  <si>
     <t>KG9202-type (Purple)</t>
   </si>
   <si>
@@ -422,29 +404,71 @@
     <t>Z25-type (Purple)</t>
   </si>
   <si>
-    <t>CSP-2</t>
-  </si>
-  <si>
-    <t>CSP-2FAM</t>
-  </si>
-  <si>
-    <t>CSP-2HEX</t>
-  </si>
-  <si>
-    <t>CSP-2Com</t>
-  </si>
-  <si>
-    <t>Originally published in Toth 2022.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.7298/bvsc-7x71</t>
+    <t>THCAS 3' UTR Specific HEX</t>
+  </si>
+  <si>
+    <t>CATCGAGCTGGAATCTTGTATGAG</t>
+  </si>
+  <si>
+    <t>GAAGGTCGGAGTCAACGGATT CTCTATAATTGAGATATGCCAATCTTGG</t>
+  </si>
+  <si>
+    <t>GAAGGTGACCAAGTTCATGCT  CTCTATAATTGAGATATGCCAATCTTGA</t>
+  </si>
+  <si>
+    <t>BD01-1HEX</t>
+  </si>
+  <si>
+    <t>BD01-1FAM</t>
+  </si>
+  <si>
+    <t>CBDAS1FWD</t>
+  </si>
+  <si>
+    <t>CBDAS P476S Inactivation</t>
+  </si>
+  <si>
+    <t>**BD/BT requires some optimization for Tm still. Use CT1.1 for better chromatogram clustering**</t>
+  </si>
+  <si>
+    <t>CT1.1 (I, II, III)</t>
+  </si>
+  <si>
+    <t>CT1.1HEX</t>
+  </si>
+  <si>
+    <t>CT1.1FAM</t>
+  </si>
+  <si>
+    <t>CT1.1Com</t>
+  </si>
+  <si>
+    <t>CBDAS Specific FAM</t>
+  </si>
+  <si>
+    <t>CT1-haplotype pseudogene Specific HEX</t>
+  </si>
+  <si>
+    <t>Shifted to avoid pseudogene mutation sites found in some germplasm</t>
+  </si>
+  <si>
+    <t>GAAGGTGACCAAGTTCATGCT ATTAGACTGGTTGCTGTCCCAAA</t>
+  </si>
+  <si>
+    <t>GAAGGTCGGAGTCAACGGATT ATTAGACTGGTTGCTGTCCCAAC</t>
+  </si>
+  <si>
+    <t>CCTAGTTATGAAGTGAGTCATGAG</t>
+  </si>
+  <si>
+    <t>THCAS/CBDAS common FWD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,14 +494,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -496,11 +512,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -508,10 +523,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -844,24 +857,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC341AB6-AAFD-4F89-A2BC-FB71BB5CF2FA}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="73" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
     <col min="5" max="10" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -870,217 +883,217 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>123</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1089,38 +1102,40 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -1129,127 +1144,119 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>89</v>
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>17</v>
+      <c r="B35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="1"/>
+      <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>89</v>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -1258,160 +1265,200 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="C43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>125</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" s="1"/>
+      <c r="G59" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E38" r:id="rId1" xr:uid="{22347F10-DF58-4C4F-A8A5-4AD5243D67BD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Primer sequences.xlsx
+++ b/Primer sequences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smartlab\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cornellprod-my.sharepoint.com/personal/maq28_cornell_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2067AFE2-075B-49F0-8905-373370CD17A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62B6181-1AFC-4346-80EB-E2AD2F09E994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{CC8F0C81-D8F2-4F11-B225-1E298F0294C1}"/>
+    <workbookView xWindow="-28920" yWindow="1530" windowWidth="29040" windowHeight="15720" xr2:uid="{CC8F0C81-D8F2-4F11-B225-1E298F0294C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="188">
   <si>
     <t>BdBt1HEX</t>
   </si>
@@ -254,24 +254,6 @@
     <t>Purple flowers</t>
   </si>
   <si>
-    <t>BD/BT (I, II, III)</t>
-  </si>
-  <si>
-    <t>BT02 (IV)</t>
-  </si>
-  <si>
-    <t>BD01 (IV)</t>
-  </si>
-  <si>
-    <t>BD02 (IV)</t>
-  </si>
-  <si>
-    <t>Bnull (IV)</t>
-  </si>
-  <si>
-    <t>OLS (V)</t>
-  </si>
-  <si>
     <t>Auto1.1Com</t>
   </si>
   <si>
@@ -431,9 +413,6 @@
     <t>**BD/BT requires some optimization for Tm still. Use CT1.1 for better chromatogram clustering**</t>
   </si>
   <si>
-    <t>CT1.1 (I, II, III)</t>
-  </si>
-  <si>
     <t>CT1.1HEX</t>
   </si>
   <si>
@@ -449,9 +428,6 @@
     <t>CT1-haplotype pseudogene Specific HEX</t>
   </si>
   <si>
-    <t>Shifted to avoid pseudogene mutation sites found in some germplasm</t>
-  </si>
-  <si>
     <t>GAAGGTGACCAAGTTCATGCT ATTAGACTGGTTGCTGTCCCAAA</t>
   </si>
   <si>
@@ -462,13 +438,193 @@
   </si>
   <si>
     <t>THCAS/CBDAS common FWD</t>
+  </si>
+  <si>
+    <t>Primer Name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Marker Name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CBDAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> deletion</t>
+    </r>
+  </si>
+  <si>
+    <t>BT inactivation identified by Oregon CBD</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC7916091/</t>
+  </si>
+  <si>
+    <t>Italian fiber-type BD inactivation</t>
+  </si>
+  <si>
+    <t>BD inactivation</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0031942215001181?via%3Dihub</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/gcbb.12667</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC10681003/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivetol synthase mutant </t>
+  </si>
+  <si>
+    <t>Publication in progress</t>
+  </si>
+  <si>
+    <t>Shifted to avoid pseudogene mutation sites found in some germplasm, publication in progress</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Chemotype I, II, III</t>
+  </si>
+  <si>
+    <t>Chemotype IV</t>
+  </si>
+  <si>
+    <t>Chemotype V</t>
+  </si>
+  <si>
+    <t>https://ecommons.cornell.edu/server/api/core/bitstreams/dfb13426-ea4f-4ca4-beec-f15f6b23ad0a/content</t>
+  </si>
+  <si>
+    <t>CSP-2</t>
+  </si>
+  <si>
+    <t>CCP-2</t>
+  </si>
+  <si>
+    <t>CCP-1.1</t>
+  </si>
+  <si>
+    <t>Adapted from CCP-1</t>
+  </si>
+  <si>
+    <t>CCP-3_BT02</t>
+  </si>
+  <si>
+    <t>CCP-4_BD01</t>
+  </si>
+  <si>
+    <t>CCP-5_BD02</t>
+  </si>
+  <si>
+    <t>CCP-6_Bnull</t>
+  </si>
+  <si>
+    <t>CCP-7_OLS</t>
+  </si>
+  <si>
+    <t>Improved marker targeting Flowering time control protein FY</t>
+  </si>
+  <si>
+    <t>**Some germplasm does exhibit this SNP without the linked MLO1 insertion**</t>
+  </si>
+  <si>
+    <t>CsMLO1_FL58-2-WT</t>
+  </si>
+  <si>
+    <t>CAGAAGTACATCAGCAAATCACTTG</t>
+  </si>
+  <si>
+    <t>CsMLO1_FL58-2-Insertion</t>
+  </si>
+  <si>
+    <t>CGAACTCCCCTGTTCATTG</t>
+  </si>
+  <si>
+    <t>CsMLO1_FL58-2-Common</t>
+  </si>
+  <si>
+    <t>GCACCCTTTACCACATCTC</t>
+  </si>
+  <si>
+    <t>Common gel marker</t>
+  </si>
+  <si>
+    <t>WT CsMLO1 gel marker</t>
+  </si>
+  <si>
+    <t>‘FL 58’ CsMLO1 gel marker</t>
+  </si>
+  <si>
+    <t>Use gel marker assay to confirm</t>
+  </si>
+  <si>
+    <t>CsMLO1_FL58-1</t>
+  </si>
+  <si>
+    <t>CsMLO1_FL58-2</t>
+  </si>
+  <si>
+    <t>1000 bp amplicon</t>
+  </si>
+  <si>
+    <t>573 bp amplicon</t>
+  </si>
+  <si>
+    <t>https://apsjournals.apsnet.org/doi/full/10.1094/MPMI-04-23-0043-R</t>
+  </si>
+  <si>
+    <t>Auto1</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2022.991680/full</t>
+  </si>
+  <si>
+    <t>PRR37 exon2 splice site G-&gt;T</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.16726</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.16769</t>
+  </si>
+  <si>
+    <t>CsFT1 copy number variant</t>
+  </si>
+  <si>
+    <t>Auto2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +650,44 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -512,10 +706,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -523,8 +718,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -857,608 +1075,761 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC341AB6-AAFD-4F89-A2BC-FB71BB5CF2FA}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
-    <col min="5" max="10" width="8.85546875"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="10"/>
+    <col min="7" max="10" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G64" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{0D217271-19C4-4595-BBF4-D0328E9F6B9E}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{549C8223-8205-45A1-803C-2C013D9F1A6D}"/>
+    <hyperlink ref="F16" r:id="rId3" xr:uid="{96EDCDC5-EBB7-46F7-87EE-60B9E66C2785}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{3DA9E693-B9E4-4109-87F7-CD296D28C698}"/>
+    <hyperlink ref="F28" r:id="rId5" xr:uid="{59C7520C-408D-48D6-B89A-0CA6CABDF8EF}"/>
+    <hyperlink ref="F32" r:id="rId6" xr:uid="{729CF374-6384-4E5D-BB24-5BF19A5A1936}"/>
+    <hyperlink ref="F40" r:id="rId7" xr:uid="{B07FF321-D939-4E19-B0A2-A80FD3F3B3B2}"/>
+    <hyperlink ref="F36" r:id="rId8" xr:uid="{CDDF6752-78C6-4E47-B4F8-08E8E373A9F3}"/>
+    <hyperlink ref="F44" r:id="rId9" xr:uid="{9F37CD98-5026-479E-A075-716161B748BC}"/>
+    <hyperlink ref="I43" r:id="rId10" xr:uid="{C4389BDE-94EF-45A1-B7B9-CCBA53E31BA2}"/>
+    <hyperlink ref="F48" r:id="rId11" xr:uid="{8585663E-79C8-4CDB-9DDB-87319B2ACB26}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId12"/>
 </worksheet>
 </file>